--- a/data/scheduling_DNN/predict/0.1/result25.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result25.xlsx
@@ -570,10 +570,10 @@
         <v>0.9027421474456787</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4842950105667114</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008204367011785507</v>
+        <v>0.1750980019569397</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9814579486846924</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4758983850479126</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1697983741760254</v>
+        <v>0.2555904686450958</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8846569061279297</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4899492263793945</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01909282803535461</v>
+        <v>0.155794158577919</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8833370208740234</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5302826166152954</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2514277696609497</v>
+        <v>0.1246474087238312</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9357039928436279</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.9249758720397949</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2496851831674576</v>
+        <v>0.0001150925745605491</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8899688720703125</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4901129007339478</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0686197504401207</v>
+        <v>0.1598847955465317</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8830749988555908</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9790316224098206</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07086247205734253</v>
+        <v>0.009207673370838165</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9195389747619629</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5489320158958435</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01056811213493347</v>
+        <v>0.1373495161533356</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9149329662322998</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4977734684944153</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2754495143890381</v>
+        <v>0.1740220487117767</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8703880310058594</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.5354131460189819</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00341234658844769</v>
+        <v>0.1122081726789474</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8767008781433105</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.8840298652648926</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06292653828859329</v>
+        <v>5.371405131882057e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8683860301971436</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4842608571052551</v>
       </c>
       <c r="W13" t="n">
-        <v>0.170572504401207</v>
+        <v>0.1475521475076675</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9082188606262207</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5026074647903442</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2046568840742111</v>
+        <v>0.1645206063985825</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8986029624938965</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5493402481079102</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1195104047656059</v>
+        <v>0.1219844445586205</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8633649349212646</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.9163762331008911</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09711816906929016</v>
+        <v>0.002810197649523616</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8761470317840576</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.8857612013816833</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1042055636644363</v>
+        <v>9.243225940736011e-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9122509956359863</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4787636995315552</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06436248868703842</v>
+        <v>0.1879112422466278</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8539340496063232</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9602060317993164</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05516277626156807</v>
+        <v>0.0112937344238162</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8919620513916016</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.918681263923645</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0553748719394207</v>
+        <v>0.0007139163208194077</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8625869750976562</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.8777851462364197</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04861467331647873</v>
+        <v>0.0002309844130650163</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5806221961975098</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.5777788758277893</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01083307899534702</v>
+        <v>8.084471119218506e-06</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5197858810424805</v>
       </c>
       <c r="V23" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9367526769638062</v>
       </c>
       <c r="W23" t="n">
-        <v>0.007047494407743216</v>
+        <v>0.1738613098859787</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5289130210876465</v>
       </c>
       <c r="V24" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5304956436157227</v>
       </c>
       <c r="W24" t="n">
-        <v>0.008045573718845844</v>
+        <v>2.504694066374213e-06</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5306081771850586</v>
       </c>
       <c r="V25" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4971188902854919</v>
       </c>
       <c r="W25" t="n">
-        <v>0.00321232108399272</v>
+        <v>0.001121532288379967</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5252571105957031</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.5303552150726318</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0008002922404557467</v>
+        <v>2.599067011033185e-05</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5686180591583252</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.5027377009391785</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03432769328355789</v>
+        <v>0.004340221639722586</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5155479907989502</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.53029465675354</v>
       </c>
       <c r="W28" t="n">
-        <v>0.006288936827331781</v>
+        <v>0.0002174641558667645</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5190689563751221</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4964841604232788</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01979398541152477</v>
+        <v>0.0005100730340927839</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5338840484619141</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8835135102272034</v>
       </c>
       <c r="W30" t="n">
-        <v>0.007209410425275564</v>
+        <v>0.1222407594323158</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5129270553588867</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5023066997528076</v>
       </c>
       <c r="W31" t="n">
-        <v>0.04820780828595161</v>
+        <v>0.0001127919531427324</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5250270366668701</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4971698522567749</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01806108839809895</v>
+        <v>0.0007760227308608592</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5148928165435791</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9151951670646667</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001341025927104056</v>
+        <v>0.1602419763803482</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5148279666900635</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5302512049674988</v>
       </c>
       <c r="W34" t="n">
-        <v>0.000116812669148203</v>
+        <v>0.000237876272876747</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5110929012298584</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.8832347989082336</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0008826147532090545</v>
+        <v>0.1384895890951157</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5108060836791992</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.9459475874900818</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002002394990995526</v>
+        <v>0.1893481314182281</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5143048763275146</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4902952909469604</v>
       </c>
       <c r="W37" t="n">
-        <v>0.001610674429684877</v>
+        <v>0.0005764602101407945</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5657181739807129</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5302379131317139</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0001718153653200716</v>
+        <v>0.001258848933503032</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5149080753326416</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.5061079859733582</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001402731402777135</v>
+        <v>7.744157483102754e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5171618461608887</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4726946949958801</v>
       </c>
       <c r="W40" t="n">
-        <v>0.001217931625433266</v>
+        <v>0.001977327512577176</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5240011215209961</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4836128950119019</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01432942040264606</v>
+        <v>0.001631208811886609</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4109699726104736</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.482818603515625</v>
       </c>
       <c r="W42" t="n">
-        <v>0.008713898248970509</v>
+        <v>0.005162225570529699</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4109878540039062</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5942641496658325</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02402120269834995</v>
+        <v>0.03359020128846169</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.4053390026092529</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4780716896057129</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0009249071590602398</v>
+        <v>0.005290043540298939</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.387192964553833</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.5061044096946716</v>
       </c>
       <c r="W45" t="n">
-        <v>0.004503596574068069</v>
+        <v>0.01413993164896965</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3862450122833252</v>
       </c>
       <c r="V46" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5782055258750916</v>
       </c>
       <c r="W46" t="n">
-        <v>0.007214061915874481</v>
+        <v>0.03684883937239647</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.402562141418457</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5303037166595459</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001092875842005014</v>
+        <v>0.01631790958344936</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3875730037689209</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4760773181915283</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02746704593300819</v>
+        <v>0.007833013311028481</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.389808177947998</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.4777254462242126</v>
       </c>
       <c r="W49" t="n">
-        <v>0.005577983800321817</v>
+        <v>0.007729446049779654</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.4359250068664551</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5015942454338074</v>
       </c>
       <c r="W50" t="n">
-        <v>0.004259916953742504</v>
+        <v>0.004312448669224977</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3880410194396973</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5794126391410828</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02867268957197666</v>
+        <v>0.03662309795618057</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3882191181182861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8832118511199951</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05428113043308258</v>
+        <v>0.2450178116559982</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3862791061401367</v>
       </c>
       <c r="V53" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4854877591133118</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02739953808486462</v>
+        <v>0.009842356666922569</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3853950500488281</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4896580576896667</v>
       </c>
       <c r="W54" t="n">
-        <v>0.09160689264535904</v>
+        <v>0.01087077520787716</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3886079788208008</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9141857624053955</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02691603451967239</v>
+        <v>0.2762320041656494</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.382084846496582</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4867469072341919</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01475953124463558</v>
+        <v>0.01095414720475674</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863520622253418</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.4869523048400879</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03327258303761482</v>
+        <v>0.01012040860950947</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3842310905456543</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.8756111264228821</v>
       </c>
       <c r="W58" t="n">
-        <v>0.002682170132175088</v>
+        <v>0.2414543330669403</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3883399963378906</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9102997779846191</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08109769225120544</v>
+        <v>0.2724420130252838</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3877530097961426</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5334979891777039</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0654563307762146</v>
+        <v>0.02124159969389439</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3847990036010742</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5271754264831543</v>
       </c>
       <c r="W61" t="n">
-        <v>0.005287698470056057</v>
+        <v>0.02027104608714581</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9515869617462158</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.8631016612052917</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2357923835515976</v>
+        <v>0.007829648442566395</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8605039119720459</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9442456364631653</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1801286488771439</v>
+        <v>0.007012676447629929</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8655259609222412</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5603479146957397</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1656925827264786</v>
+        <v>0.09313364326953888</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8683171272277832</v>
       </c>
       <c r="V65" t="n">
-        <v>0.624285101890564</v>
+        <v>0.9366025924682617</v>
       </c>
       <c r="W65" t="n">
-        <v>0.05955163016915321</v>
+        <v>0.004662904888391495</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9197759628295898</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5302844047546387</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1386545449495316</v>
+        <v>0.1517036706209183</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8775010108947754</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4840536117553711</v>
       </c>
       <c r="W67" t="n">
-        <v>0.07650598138570786</v>
+        <v>0.1548008620738983</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8817739486694336</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9334561228752136</v>
       </c>
       <c r="W68" t="n">
-        <v>0.004045195411890745</v>
+        <v>0.002671047113835812</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8660259246826172</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4864125847816467</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0883755162358284</v>
+        <v>0.1441062837839127</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.9152820110321045</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.4998440742492676</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07908587157726288</v>
+        <v>0.1725886762142181</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8648760318756104</v>
       </c>
       <c r="V71" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.5151124596595764</v>
       </c>
       <c r="W71" t="n">
-        <v>0.01385084446519613</v>
+        <v>0.1223345547914505</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8626019954681396</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4983746409416199</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1819780617952347</v>
+        <v>0.1326615661382675</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8610498905181885</v>
       </c>
       <c r="V73" t="n">
-        <v>0.473088413476944</v>
+        <v>0.4761441349983215</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1505141109228134</v>
+        <v>0.1481524407863617</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.9095571041107178</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9361225962638855</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2036474198102951</v>
+        <v>0.0007057253969833255</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8855249881744385</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4922142028808594</v>
       </c>
       <c r="W75" t="n">
-        <v>0.186577633023262</v>
+        <v>0.1546933799982071</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8755559921264648</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5301768779754639</v>
       </c>
       <c r="W76" t="n">
-        <v>0.0614967979490757</v>
+        <v>0.1192867308855057</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8696420192718506</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4831894040107727</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2418795078992844</v>
+        <v>0.1493456214666367</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9143002033233643</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5019299983978271</v>
       </c>
       <c r="W78" t="n">
-        <v>0.06541449576616287</v>
+        <v>0.1700491905212402</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8683340549468994</v>
       </c>
       <c r="V79" t="n">
-        <v>0.630542516708374</v>
+        <v>0.8855800628662109</v>
       </c>
       <c r="W79" t="n">
-        <v>0.05654481425881386</v>
+        <v>0.0002974247909151018</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8561320304870605</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4827382564544678</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2171879559755325</v>
+        <v>0.1394229084253311</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8550889492034912</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8689047694206238</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1528208404779434</v>
+        <v>0.0001908768899738789</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5951128005981445</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9179121851921082</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01872615143656731</v>
+        <v>0.1041994392871857</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5361039638519287</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5303987264633179</v>
       </c>
       <c r="W83" t="n">
-        <v>0.001061271177604795</v>
+        <v>3.25497348967474e-05</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5173749923706055</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.498376727104187</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01147807389497757</v>
+        <v>0.0003609340928960592</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5548489093780518</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.8816366195678711</v>
       </c>
       <c r="W85" t="n">
-        <v>0.004634246230125427</v>
+        <v>0.1067902073264122</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5071470737457275</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.8820396065711975</v>
       </c>
       <c r="W86" t="n">
-        <v>0.003413634840399027</v>
+        <v>0.1405444145202637</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5138027667999268</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4829079508781433</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001448146882466972</v>
+        <v>0.0009544896311126649</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5160069465637207</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4918367266654968</v>
       </c>
       <c r="W88" t="n">
-        <v>0.001303272438235581</v>
+        <v>0.0005841995589435101</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5132229328155518</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4762325286865234</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01792097836732864</v>
+        <v>0.001368290046229959</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5288739204406738</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4832569360733032</v>
       </c>
       <c r="W90" t="n">
-        <v>0.005566086620092392</v>
+        <v>0.00208090920932591</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5174040794372559</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4864927530288696</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01133875269442797</v>
+        <v>0.0009555101278237998</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5164320468902588</v>
       </c>
       <c r="V92" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4974915385246277</v>
       </c>
       <c r="W92" t="n">
-        <v>0.04357119277119637</v>
+        <v>0.0003587428655009717</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5690090656280518</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.8855654001235962</v>
       </c>
       <c r="W93" t="n">
-        <v>0.003035533241927624</v>
+        <v>0.1002079099416733</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5119409561157227</v>
       </c>
       <c r="V94" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.530139684677124</v>
       </c>
       <c r="W94" t="n">
-        <v>0.04921193793416023</v>
+        <v>0.0003311937325634062</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5144870281219482</v>
       </c>
       <c r="V95" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4835367798805237</v>
       </c>
       <c r="W95" t="n">
-        <v>9.156441228697076e-05</v>
+        <v>0.0009579178877174854</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5167090892791748</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9431994557380676</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01664802990853786</v>
+        <v>0.1818940341472626</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5157101154327393</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5132225751876831</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02858422324061394</v>
+        <v>6.18785634287633e-06</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5182831287384033</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.9829974770545959</v>
       </c>
       <c r="W98" t="n">
-        <v>0.003663152921944857</v>
+        <v>0.2159594297409058</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5152649879455566</v>
       </c>
       <c r="V99" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5266370177268982</v>
       </c>
       <c r="W99" t="n">
-        <v>0.04909633472561836</v>
+        <v>0.0001293230598093942</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5177290439605713</v>
       </c>
       <c r="V100" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4965193867683411</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001366965239867568</v>
+        <v>0.0004498495545703918</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5128660202026367</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5033988356590271</v>
       </c>
       <c r="W101" t="n">
-        <v>3.8522277463926e-05</v>
+        <v>8.962758147390559e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.400123119354248</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.512911319732666</v>
       </c>
       <c r="W102" t="n">
-        <v>0.05081444606184959</v>
+        <v>0.0127211781218648</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.399299144744873</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5071272253990173</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001374364364892244</v>
+        <v>0.01162689458578825</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4505109786987305</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5131417512893677</v>
       </c>
       <c r="W104" t="n">
-        <v>0.002855123719200492</v>
+        <v>0.003922613803297281</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4121918678283691</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.9488878846168518</v>
       </c>
       <c r="W105" t="n">
-        <v>0.04359777271747589</v>
+        <v>0.2880426049232483</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.388131856918335</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9487015604972839</v>
       </c>
       <c r="W106" t="n">
-        <v>0.07231967151165009</v>
+        <v>0.3142383992671967</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3867380619049072</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4831910133361816</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02631904184818268</v>
+        <v>0.009303172118961811</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3843681812286377</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5300304293632507</v>
       </c>
       <c r="W108" t="n">
-        <v>0.06709795445203781</v>
+        <v>0.02121748961508274</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3842189311981201</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5154766440391541</v>
       </c>
       <c r="W109" t="n">
-        <v>0.00748926168307662</v>
+        <v>0.01722858659923077</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.386483907699585</v>
       </c>
       <c r="V110" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4756457805633545</v>
       </c>
       <c r="W110" t="n">
-        <v>0.05677693337202072</v>
+        <v>0.007949839346110821</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3904011249542236</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4984269142150879</v>
       </c>
       <c r="W111" t="n">
-        <v>0.07098762691020966</v>
+        <v>0.01166957151144743</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4041681289672852</v>
       </c>
       <c r="V112" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.4844176173210144</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1719027608633041</v>
+        <v>0.006439980585128069</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3896360397338867</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4846690893173218</v>
       </c>
       <c r="W113" t="n">
-        <v>0.004090456757694483</v>
+        <v>0.009031280875205994</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3841509819030762</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4775328636169434</v>
       </c>
       <c r="W114" t="n">
-        <v>0.05493907257914543</v>
+        <v>0.008720176294445992</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.387484073638916</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4831945896148682</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002994854003190994</v>
+        <v>0.009160502813756466</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3908090591430664</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.8823356628417969</v>
       </c>
       <c r="W116" t="n">
-        <v>0.06399320811033249</v>
+        <v>0.2415983974933624</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3927419185638428</v>
       </c>
       <c r="V117" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4831264615058899</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01269405987113714</v>
+        <v>0.008169366046786308</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.407804012298584</v>
       </c>
       <c r="V118" t="n">
-        <v>0.458252340555191</v>
+        <v>0.9032934308052063</v>
       </c>
       <c r="W118" t="n">
-        <v>0.002545033814385533</v>
+        <v>0.2455097585916519</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3922319412231445</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5132668018341064</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01252783369272947</v>
+        <v>0.01464943774044514</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3988139629364014</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.508446991443634</v>
       </c>
       <c r="W120" t="n">
-        <v>0.05077194049954414</v>
+        <v>0.01201940048485994</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.384242057800293</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4832028746604919</v>
       </c>
       <c r="W121" t="n">
-        <v>0.008412167429924011</v>
+        <v>0.009793243370950222</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9091389179229736</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.5304313898086548</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2241597920656204</v>
+        <v>0.1434193849563599</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9102339744567871</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.507973849773407</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1903633177280426</v>
+        <v>0.1618132144212723</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8868200778961182</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5794229507446289</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1769601106643677</v>
+        <v>0.09449299424886703</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8696630001068115</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9019815325737</v>
       </c>
       <c r="W125" t="n">
-        <v>0.06028164923191071</v>
+        <v>0.001044487580657005</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9365401268005371</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.484441339969635</v>
       </c>
       <c r="W126" t="n">
-        <v>0.03922272473573685</v>
+        <v>0.2043933123350143</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8925900459289551</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.8952591419219971</v>
       </c>
       <c r="W127" t="n">
-        <v>0.0554819144308567</v>
+        <v>7.1240733632294e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8618149757385254</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4960997104644775</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04037880524992943</v>
+        <v>0.1337476521730423</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8639340400695801</v>
       </c>
       <c r="V129" t="n">
-        <v>0.56818687915802</v>
+        <v>0.9130040407180786</v>
       </c>
       <c r="W129" t="n">
-        <v>0.08746638149023056</v>
+        <v>0.002407864900305867</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.944782018661499</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.9804561734199524</v>
       </c>
       <c r="W130" t="n">
-        <v>0.08197571337223053</v>
+        <v>0.001272645313292742</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8659770488739014</v>
       </c>
       <c r="V131" t="n">
-        <v>0.551541268825531</v>
+        <v>0.8934409618377686</v>
       </c>
       <c r="W131" t="n">
-        <v>0.09886986017227173</v>
+        <v>0.0007542665116488934</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8896629810333252</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4957457780838013</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1754516363143921</v>
+        <v>0.1551707684993744</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9097139835357666</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.8859045505523682</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2043739408254623</v>
+        <v>0.0005668891244567931</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.912787914276123</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.9234070181846619</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1735406070947647</v>
+        <v>0.0001127653667936102</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8688828945159912</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5023428201675415</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1585750877857208</v>
+        <v>0.1343516260385513</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8623809814453125</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.5793025493621826</v>
       </c>
       <c r="W136" t="n">
-        <v>0.09478050470352173</v>
+        <v>0.08013340085744858</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8649418354034424</v>
       </c>
       <c r="V137" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4827888011932373</v>
       </c>
       <c r="W137" t="n">
-        <v>0.00281163863837719</v>
+        <v>0.1460409462451935</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9149141311645508</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5085700750350952</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1201595291495323</v>
+        <v>0.1651154905557632</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8701250553131104</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5933622717857361</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2022880762815475</v>
+        <v>0.07659763842821121</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8615531921386719</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8924071192741394</v>
       </c>
       <c r="W140" t="n">
-        <v>0.05767722055315971</v>
+        <v>0.0009519648156128824</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.862091064453125</v>
       </c>
       <c r="V141" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.5302634239196777</v>
       </c>
       <c r="W141" t="n">
-        <v>0.002079604426398873</v>
+        <v>0.1101095825433731</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5714890956878662</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9786405563354492</v>
       </c>
       <c r="W142" t="n">
-        <v>0.03711200878024101</v>
+        <v>0.1657723188400269</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5153710842132568</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4822809100151062</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02842932380735874</v>
+        <v>0.001094959676265717</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5186259746551514</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5738466382026672</v>
       </c>
       <c r="W144" t="n">
-        <v>0.005837913602590561</v>
+        <v>0.00304932170547545</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5157039165496826</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5008361339569092</v>
       </c>
       <c r="W145" t="n">
-        <v>0.006348820868879557</v>
+        <v>0.000221050955587998</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5191919803619385</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9352447986602783</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01180896069854498</v>
+        <v>0.1730999499559402</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.53696608543396</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.8849315047264099</v>
       </c>
       <c r="W147" t="n">
-        <v>0.00787565391510725</v>
+        <v>0.1210799366235733</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.514862060546875</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5087071657180786</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01132974214851856</v>
+        <v>3.78827317035757e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5167319774627686</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4757987856864929</v>
       </c>
       <c r="W149" t="n">
-        <v>0.002006007824093103</v>
+        <v>0.001675526145845652</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5160179138183594</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5084210634231567</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01787366159260273</v>
+        <v>5.771213545813225e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5154118537902832</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.4708613157272339</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0001868745312094688</v>
+        <v>0.001984750386327505</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5124261379241943</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.9354987740516663</v>
       </c>
       <c r="W152" t="n">
-        <v>0.005837257951498032</v>
+        <v>0.1789904534816742</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5701191425323486</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9092199802398682</v>
       </c>
       <c r="W153" t="n">
-        <v>0.03670522570610046</v>
+        <v>0.1149893775582314</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5161011219024658</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4854267239570618</v>
       </c>
       <c r="W154" t="n">
-        <v>0.003902957541868091</v>
+        <v>0.0009409186895936728</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195460319519043</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5279387831687927</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0154159851372242</v>
+        <v>7.043827645247802e-05</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5168900489807129</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.464982807636261</v>
       </c>
       <c r="W156" t="n">
-        <v>0.001344835269264877</v>
+        <v>0.002694361610338092</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5153939723968506</v>
       </c>
       <c r="V157" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4916524291038513</v>
       </c>
       <c r="W157" t="n">
-        <v>0.001297511975280941</v>
+        <v>0.0005636608693748713</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5407888889312744</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9188170433044434</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01095306780189276</v>
+        <v>0.1429052799940109</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5208480358123779</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4895160794258118</v>
       </c>
       <c r="W159" t="n">
-        <v>0.007196136750280857</v>
+        <v>0.0009816915262490511</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5156939029693604</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.9789021611213684</v>
       </c>
       <c r="W160" t="n">
-        <v>0.006347325164824724</v>
+        <v>0.2145618945360184</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5186309814453125</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.9355189800262451</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001911074155941606</v>
+        <v>0.173795610666275</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3936100006103516</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4899457097053528</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03329554945230484</v>
+        <v>0.009280568920075893</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3894939422607422</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4755427837371826</v>
       </c>
       <c r="W163" t="n">
-        <v>0.00213905842974782</v>
+        <v>0.007404403295367956</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4398760795593262</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4973145127296448</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0003162621578667313</v>
+        <v>0.003299173666164279</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3914239406585693</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.9297484159469604</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02616089023649693</v>
+        <v>0.2897932529449463</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3888819217681885</v>
       </c>
       <c r="V166" t="n">
-        <v>0.436027318239212</v>
+        <v>0.9114704132080078</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002222688402980566</v>
+        <v>0.2730987370014191</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3887720108032227</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5302236080169678</v>
       </c>
       <c r="W167" t="n">
-        <v>0.004730455577373505</v>
+        <v>0.02000855468213558</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3896520137786865</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5337092876434326</v>
       </c>
       <c r="W168" t="n">
-        <v>0.03089412301778793</v>
+        <v>0.02075249888002872</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3978087902069092</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.885722279548645</v>
       </c>
       <c r="W169" t="n">
-        <v>0.02305718697607517</v>
+        <v>0.2380595803260803</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.391603946685791</v>
       </c>
       <c r="V170" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4984518885612488</v>
       </c>
       <c r="W170" t="n">
-        <v>0.03151023015379906</v>
+        <v>0.01141648273915052</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3898417949676514</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.8968803286552429</v>
       </c>
       <c r="W171" t="n">
-        <v>0.004594736732542515</v>
+        <v>0.2570880651473999</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4034278392791748</v>
       </c>
       <c r="V172" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.8667391538619995</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1109887063503265</v>
+        <v>0.2146573811769485</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3966429233551025</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4852026104927063</v>
       </c>
       <c r="W173" t="n">
-        <v>0.02510950341820717</v>
+        <v>0.007842818275094032</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4077138900756836</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5942848920822144</v>
       </c>
       <c r="W174" t="n">
-        <v>0.04745268821716309</v>
+        <v>0.03480874001979828</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4001798629760742</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.4845800995826721</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01035539526492357</v>
+        <v>0.007123399991542101</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920331001281738</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5101699233055115</v>
       </c>
       <c r="W176" t="n">
-        <v>0.05256980657577515</v>
+        <v>0.01395630929619074</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4064059257507324</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.8997426629066467</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0007507429691031575</v>
+        <v>0.243381142616272</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3917720317840576</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.5554318428039551</v>
       </c>
       <c r="W178" t="n">
-        <v>0.06605474650859833</v>
+        <v>0.02678453363478184</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.391556978225708</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.8828010559082031</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01214352529495955</v>
+        <v>0.2413207441568375</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3911919593811035</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4851483702659607</v>
       </c>
       <c r="W180" t="n">
-        <v>0.07122024148702621</v>
+        <v>0.008827807381749153</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4147608280181885</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9274341464042664</v>
       </c>
       <c r="W181" t="n">
-        <v>0.06024237722158432</v>
+        <v>0.2628339231014252</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9369480609893799</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4823486804962158</v>
       </c>
       <c r="W182" t="n">
-        <v>0.09976304322481155</v>
+        <v>0.2066605985164642</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8889210224151611</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.882473886013031</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1785442680120468</v>
+        <v>4.156556678935885e-05</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8724081516265869</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.8760248422622681</v>
       </c>
       <c r="W184" t="n">
-        <v>0.06168513745069504</v>
+        <v>1.308045102632605e-05</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8758549690246582</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5788581967353821</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1602608263492584</v>
+        <v>0.08820708096027374</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9212911128997803</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.928477942943573</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06797349452972412</v>
+        <v>5.165052789379843e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.889056921005249</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.9467159509658813</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1548537164926529</v>
+        <v>0.003324563847854733</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8663330078125</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4836091995239258</v>
       </c>
       <c r="W188" t="n">
-        <v>0.05873443931341171</v>
+        <v>0.1464775204658508</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8849420547485352</v>
       </c>
       <c r="V189" t="n">
-        <v>0.57613205909729</v>
+        <v>0.496446430683136</v>
       </c>
       <c r="W189" t="n">
-        <v>0.09536361694335938</v>
+        <v>0.1509288549423218</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9344451427459717</v>
       </c>
       <c r="V190" t="n">
-        <v>0.816550612449646</v>
+        <v>0.943349301815033</v>
       </c>
       <c r="W190" t="n">
-        <v>0.0138991205021739</v>
+        <v>7.928405102575198e-05</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8654191493988037</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4919517040252686</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1660394966602325</v>
+        <v>0.13947793841362</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8727819919586182</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5300105214118958</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1656113266944885</v>
+        <v>0.1174922809004784</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8820431232452393</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.8813238143920898</v>
       </c>
       <c r="W193" t="n">
-        <v>0.198931485414505</v>
+        <v>5.174052262191253e-07</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9176759719848633</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4838044047355652</v>
       </c>
       <c r="W194" t="n">
-        <v>0.08639298379421234</v>
+        <v>0.1882445365190506</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8743431568145752</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4775304794311523</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1757390797138214</v>
+        <v>0.1574603021144867</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8636560440063477</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5021991729736328</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1526556760072708</v>
+        <v>0.1306510716676712</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8765809535980225</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5028792023658752</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1649796217679977</v>
+        <v>0.1396529972553253</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9203028678894043</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4845470786094666</v>
       </c>
       <c r="W198" t="n">
-        <v>0.08682414889335632</v>
+        <v>0.1898831129074097</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8729829788208008</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9572012424468994</v>
       </c>
       <c r="W199" t="n">
-        <v>0.175699383020401</v>
+        <v>0.007092715706676245</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8634300231933594</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.940765380859375</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1536980420351028</v>
+        <v>0.005980757530778646</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8862659931182861</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5055686235427856</v>
       </c>
       <c r="W201" t="n">
-        <v>0.203094944357872</v>
+        <v>0.1449304819107056</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5704789161682129</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.8939247131347656</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01267571933567524</v>
+        <v>0.1046171858906746</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5153689384460449</v>
       </c>
       <c r="V203" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4848586916923523</v>
       </c>
       <c r="W203" t="n">
-        <v>0.006297069601714611</v>
+        <v>0.0009308751323260367</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5264430046081543</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4854453206062317</v>
       </c>
       <c r="W204" t="n">
-        <v>0.008300031535327435</v>
+        <v>0.001680810120888054</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.518488883972168</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4837059378623962</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01949233189225197</v>
+        <v>0.001209853333421052</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5168240070343018</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4892622828483582</v>
       </c>
       <c r="W206" t="n">
-        <v>0.003588929539546371</v>
+        <v>0.0007596486248075962</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5265250205993652</v>
       </c>
       <c r="V207" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4747903943061829</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001786939799785614</v>
+        <v>0.002676471602171659</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.6941189765930176</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5155161023139954</v>
       </c>
       <c r="W208" t="n">
-        <v>0.001689251279458404</v>
+        <v>0.03189898654818535</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5181560516357422</v>
       </c>
       <c r="V209" t="n">
-        <v>0.476378470659256</v>
+        <v>0.8780131936073303</v>
       </c>
       <c r="W209" t="n">
-        <v>0.00174536625854671</v>
+        <v>0.129497155547142</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5236568450927734</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5789020657539368</v>
       </c>
       <c r="W210" t="n">
-        <v>0.007678928785026073</v>
+        <v>0.003052034415304661</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5163500308990479</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5029025077819824</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01066999789327383</v>
+        <v>0.0001808358792914078</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5207400321960449</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4823461771011353</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01859324984252453</v>
+        <v>0.001474088057875633</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5241680145263672</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.8957352042198181</v>
       </c>
       <c r="W213" t="n">
-        <v>0.002448098501190543</v>
+        <v>0.1380621790885925</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5228149890899658</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.889741837978363</v>
       </c>
       <c r="W214" t="n">
-        <v>0.007534872740507126</v>
+        <v>0.1346353143453598</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5222890377044678</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8747302293777466</v>
       </c>
       <c r="W215" t="n">
-        <v>0.00104368245229125</v>
+        <v>0.1242147907614708</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5167880058288574</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.5026499629020691</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01045513153076172</v>
+        <v>0.0001998842635657638</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5181658267974854</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4857978224754333</v>
       </c>
       <c r="W217" t="n">
-        <v>0.001058438094332814</v>
+        <v>0.001047687721438706</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.560042142868042</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4986557960510254</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004138714633882046</v>
+        <v>0.003768283640965819</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.52394700050354</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.8837839365005493</v>
       </c>
       <c r="W219" t="n">
-        <v>0.08552739024162292</v>
+        <v>0.129482626914978</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5214588642120361</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5794526338577271</v>
       </c>
       <c r="W220" t="n">
-        <v>0.002050392562523484</v>
+        <v>0.003363277297466993</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5173630714416504</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5304743051528931</v>
       </c>
       <c r="W221" t="n">
-        <v>0.006681553088128567</v>
+        <v>0.0001719044521450996</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3870358467102051</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.9399660229682922</v>
       </c>
       <c r="W222" t="n">
-        <v>0.03564061596989632</v>
+        <v>0.3057317733764648</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3887770175933838</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.9042001366615295</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03202253207564354</v>
+        <v>0.2656610012054443</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3911609649658203</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5336179137229919</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03249618411064148</v>
+        <v>0.02029398269951344</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3914890289306641</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4870930910110474</v>
       </c>
       <c r="W225" t="n">
-        <v>0.02455263398587704</v>
+        <v>0.009140136651694775</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3928358554840088</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4986323714256287</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01342765241861343</v>
+        <v>0.01119290292263031</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3963439464569092</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.8967496156692505</v>
       </c>
       <c r="W227" t="n">
-        <v>0.05198005214333534</v>
+        <v>0.2504058480262756</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3940498828887939</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9211300015449524</v>
       </c>
       <c r="W228" t="n">
-        <v>0.03168581426143646</v>
+        <v>0.2778134644031525</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3922841548919678</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.8974001407623291</v>
       </c>
       <c r="W229" t="n">
-        <v>0.005161360837519169</v>
+        <v>0.2551421523094177</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4481370449066162</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.9169621467590332</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1373325139284134</v>
+        <v>0.2197969704866409</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4269349575042725</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4823029041290283</v>
       </c>
       <c r="W231" t="n">
-        <v>0.03934861347079277</v>
+        <v>0.0030656096059829</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4172520637512207</v>
       </c>
       <c r="V232" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4708197116851807</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1001812741160393</v>
+        <v>0.00286949286237359</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3953630924224854</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.579124927520752</v>
       </c>
       <c r="W233" t="n">
-        <v>0.05314920470118523</v>
+        <v>0.03376841172575951</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.400148868560791</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4833476543426514</v>
       </c>
       <c r="W234" t="n">
-        <v>0.03099115006625652</v>
+        <v>0.006922037806361914</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3956191539764404</v>
       </c>
       <c r="V235" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.8802295327186584</v>
       </c>
       <c r="W235" t="n">
-        <v>0.1767888069152832</v>
+        <v>0.234847217798233</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4491050243377686</v>
       </c>
       <c r="V236" t="n">
-        <v>0.474732518196106</v>
+        <v>0.910093367099762</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0006567684467881918</v>
+        <v>0.2125102579593658</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4037191867828369</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.9036622047424316</v>
       </c>
       <c r="W237" t="n">
-        <v>0.002898772479966283</v>
+        <v>0.2499430179595947</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3884410858154297</v>
       </c>
       <c r="V238" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5789555907249451</v>
       </c>
       <c r="W238" t="n">
-        <v>0.02996457740664482</v>
+        <v>0.03629577532410622</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3857548236846924</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.9634171724319458</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01404973678290844</v>
+        <v>0.33369380235672</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3875968456268311</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5336039662361145</v>
       </c>
       <c r="W240" t="n">
-        <v>0.004572054371237755</v>
+        <v>0.02131807990372181</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3886570930480957</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9964061379432678</v>
       </c>
       <c r="W241" t="n">
-        <v>0.08097735792398453</v>
+        <v>0.3693588972091675</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9496819972991943</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9221943020820618</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2145806103944778</v>
+        <v>0.0007555733900517225</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8892998695373535</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.9841131567955017</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1862455308437347</v>
+        <v>0.008989559486508369</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8852808475494385</v>
       </c>
       <c r="V244" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.8817580342292786</v>
       </c>
       <c r="W244" t="n">
-        <v>0.00469633936882019</v>
+        <v>1.241021345776971e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8852231502532959</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5319656729698181</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1771139055490494</v>
+        <v>0.1247908473014832</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9177401065826416</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5131450891494751</v>
       </c>
       <c r="W246" t="n">
-        <v>0.09794405102729797</v>
+        <v>0.1636971235275269</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.871103048324585</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5151088833808899</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1709072887897491</v>
+        <v>0.1267318427562714</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8658900260925293</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.8785352110862732</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1348664909601212</v>
+        <v>0.0001599007082404569</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8719799518585205</v>
       </c>
       <c r="V249" t="n">
-        <v>0.390147477388382</v>
+        <v>0.4842443466186523</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2321625351905823</v>
+        <v>0.1503389030694962</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9161498546600342</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5289392471313477</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2247867733240128</v>
+        <v>0.1499320566654205</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8787980079650879</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4706869125366211</v>
       </c>
       <c r="W251" t="n">
-        <v>0.03600405156612396</v>
+        <v>0.1665546596050262</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8635070323944092</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5022598505020142</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1311514675617218</v>
+        <v>0.1304995268583298</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.879525899887085</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4897980690002441</v>
       </c>
       <c r="W253" t="n">
-        <v>0.0950264111161232</v>
+        <v>0.1518877893686295</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9203910827636719</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4705960154533386</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1758707463741302</v>
+        <v>0.2023155987262726</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8791561126708984</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4869430661201477</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1766692250967026</v>
+        <v>0.1538310796022415</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8619508743286133</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5304189324378967</v>
       </c>
       <c r="W256" t="n">
-        <v>0.128461018204689</v>
+        <v>0.1099134311079979</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8709101676940918</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5284639596939087</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1471468359231949</v>
+        <v>0.117269404232502</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9234578609466553</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5789920091629028</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2375911474227905</v>
+        <v>0.118656724691391</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.873528003692627</v>
       </c>
       <c r="V259" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4776332974433899</v>
       </c>
       <c r="W259" t="n">
-        <v>0.02011946029961109</v>
+        <v>0.1567326188087463</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8543469905853271</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4822100400924683</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2263901233673096</v>
+        <v>0.1384859085083008</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8821201324462891</v>
       </c>
       <c r="V261" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.470274806022644</v>
       </c>
       <c r="W261" t="n">
-        <v>0.05528850480914116</v>
+        <v>0.1696165800094604</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5461618900299072</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9239950180053711</v>
       </c>
       <c r="W262" t="n">
-        <v>0.004983371589332819</v>
+        <v>0.1427578777074814</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.539139986038208</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.483311653137207</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0001602279808139428</v>
+        <v>0.003116802778095007</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5213491916656494</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5054044723510742</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0107219023630023</v>
+        <v>0.0002542340662330389</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.525521993637085</v>
       </c>
       <c r="V265" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4871209859848022</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002462552860379219</v>
+        <v>0.001474637421779335</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5207290649414062</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.8681558966636658</v>
       </c>
       <c r="W266" t="n">
-        <v>0.00717511773109436</v>
+        <v>0.1207054033875465</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5833079814910889</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5017784237861633</v>
+        <v>1.040937304496765</v>
       </c>
       <c r="W267" t="n">
-        <v>0.006647069007158279</v>
+        <v>0.2094246000051498</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5208408832550049</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9177030920982361</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001497278222814202</v>
+        <v>0.1574996113777161</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5240540504455566</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.9369670152664185</v>
       </c>
       <c r="W269" t="n">
-        <v>0.007748642470687628</v>
+        <v>0.1704971194267273</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5189509391784668</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5335705876350403</v>
       </c>
       <c r="W270" t="n">
-        <v>2.115276583936065e-05</v>
+        <v>0.0002137341216439381</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5152859687805176</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4844486117362976</v>
       </c>
       <c r="W271" t="n">
-        <v>0.001202794024720788</v>
+        <v>0.0009509425726719201</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5261139869689941</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.5016027688980103</v>
       </c>
       <c r="W272" t="n">
-        <v>0.008735255338251591</v>
+        <v>0.0006007998017594218</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5276229381561279</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5305199027061462</v>
       </c>
       <c r="W273" t="n">
-        <v>0.002962230006232858</v>
+        <v>8.392403287871275e-06</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5326800346374512</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5495114922523499</v>
       </c>
       <c r="W274" t="n">
-        <v>0.008441708981990814</v>
+        <v>0.000283297966234386</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5212090015411377</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.5080989599227905</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0003069152589887381</v>
+        <v>0.0001718731946311891</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5191688537597656</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4830665588378906</v>
       </c>
       <c r="W276" t="n">
-        <v>0.002903848420828581</v>
+        <v>0.001303375698626041</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5236070156097412</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8758902549743652</v>
       </c>
       <c r="W277" t="n">
-        <v>5.679569949279539e-05</v>
+        <v>0.1241034790873528</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5721619129180908</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5798091888427734</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01845668256282806</v>
+        <v>5.848082946613431e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5233790874481201</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5789462327957153</v>
       </c>
       <c r="W279" t="n">
-        <v>0.004201538395136595</v>
+        <v>0.003087707562372088</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5223000049591064</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.5101787447929382</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0002415954659227282</v>
+        <v>0.0001469249546062201</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5223350524902344</v>
       </c>
       <c r="V281" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9531272649765015</v>
       </c>
       <c r="W281" t="n">
-        <v>0.04102130979299545</v>
+        <v>0.1855819374322891</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4067718982696533</v>
       </c>
       <c r="V282" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5303258895874023</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1642649173736572</v>
+        <v>0.01526558864861727</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3983428478240967</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5023515820503235</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1804468631744385</v>
+        <v>0.01081781648099422</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3978960514068604</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4920580983161926</v>
       </c>
       <c r="W284" t="n">
-        <v>0.00368843087926507</v>
+        <v>0.008866490796208382</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3973360061645508</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.9602215886116028</v>
       </c>
       <c r="W285" t="n">
-        <v>0.001496586366556585</v>
+        <v>0.3168401718139648</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3972830772399902</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4725909233093262</v>
       </c>
       <c r="W286" t="n">
-        <v>0.004781203344464302</v>
+        <v>0.005671271588653326</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3988401889801025</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.579841136932373</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1744299232959747</v>
+        <v>0.0327613428235054</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.396812915802002</v>
       </c>
       <c r="V288" t="n">
-        <v>0.43533855676651</v>
+        <v>0.4983294010162354</v>
       </c>
       <c r="W288" t="n">
-        <v>0.001484225038439035</v>
+        <v>0.01030559651553631</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3973720073699951</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.9179533720016479</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0002952597860712558</v>
+        <v>0.2710049450397491</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4222288131713867</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.9278640151023865</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02151844836771488</v>
+        <v>0.255666971206665</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3997540473937988</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.8843813538551331</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1792837530374527</v>
+        <v>0.2348636239767075</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3999660015106201</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4756884574890137</v>
       </c>
       <c r="W292" t="n">
-        <v>0.003035658039152622</v>
+        <v>0.00573389045894146</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4054460525512695</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.513488233089447</v>
       </c>
       <c r="W293" t="n">
-        <v>0.03968359902501106</v>
+        <v>0.01167311239987612</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3965158462524414</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4851279258728027</v>
       </c>
       <c r="W294" t="n">
-        <v>0.05255668982863426</v>
+        <v>0.007852100767195225</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3961338996887207</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5023385882377625</v>
       </c>
       <c r="W295" t="n">
-        <v>0.05056821927428246</v>
+        <v>0.01127943582832813</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4418020248413086</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.8896748423576355</v>
       </c>
       <c r="W296" t="n">
-        <v>3.660094444057904e-05</v>
+        <v>0.2005900591611862</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3980121612548828</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.869436502456665</v>
       </c>
       <c r="W297" t="n">
-        <v>0.06700287759304047</v>
+        <v>0.2222409099340439</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3987460136413574</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5355807542800903</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003567910753190517</v>
+        <v>0.01872374676167965</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4031040668487549</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5790329575538635</v>
       </c>
       <c r="W299" t="n">
-        <v>0.07952740043401718</v>
+        <v>0.03095097467303276</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3972420692443848</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5794630646705627</v>
       </c>
       <c r="W300" t="n">
-        <v>0.003714642254635692</v>
+        <v>0.03320449218153954</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3931760787963867</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4867572784423828</v>
       </c>
       <c r="W301" t="n">
-        <v>0.006013737991452217</v>
+        <v>0.008757441304624081</v>
       </c>
     </row>
     <row r="302" spans="1:23">
